--- a/banco_uxbg/clientes.xlsx
+++ b/banco_uxbg/clientes.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://realsbet-my.sharepoint.com/personal/fabricio_vieira_hrgama_com/Documents/Área de Trabalho/my_rep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c75771f7ce01da/Documentos/GitHub/desafio_reals_bet/banco_uxbg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_24A950B9D330572AABFB3C11595ED87656C46F31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFF91E6-534D-45F9-BB6E-DEC82926ABBF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_24A950B9D330572AABFB3C11595ED87656C46F31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA01C4CE-7204-4608-8A26-2196AF5EB524}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$999</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -19117,24 +19120,24 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19166,7 +19169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>28</v>
       </c>
@@ -19198,7 +19201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>674</v>
       </c>
@@ -19230,7 +19233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>693</v>
       </c>
@@ -19262,7 +19265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>743</v>
       </c>
@@ -19294,7 +19297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>769</v>
       </c>
@@ -19326,7 +19329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>824</v>
       </c>
@@ -19358,7 +19361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>884</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>899</v>
       </c>
@@ -19422,7 +19425,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>908</v>
       </c>
@@ -19454,7 +19457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>945</v>
       </c>
@@ -19486,7 +19489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -19518,7 +19521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>262</v>
       </c>
@@ -19550,7 +19553,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>281</v>
       </c>
@@ -19582,7 +19585,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>352</v>
       </c>
@@ -19614,7 +19617,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>387</v>
       </c>
@@ -19646,7 +19649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>522</v>
       </c>
@@ -19678,7 +19681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>729</v>
       </c>
@@ -19710,7 +19713,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>887</v>
       </c>
@@ -19742,7 +19745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>70</v>
       </c>
@@ -19774,7 +19777,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>226</v>
       </c>
@@ -19806,7 +19809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>239</v>
       </c>
@@ -19838,7 +19841,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>265</v>
       </c>
@@ -19870,7 +19873,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>366</v>
       </c>
@@ -19902,7 +19905,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>467</v>
       </c>
@@ -19934,7 +19937,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>602</v>
       </c>
@@ -19966,7 +19969,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>691</v>
       </c>
@@ -19998,7 +20001,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>783</v>
       </c>
@@ -20030,7 +20033,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>786</v>
       </c>
@@ -20062,7 +20065,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>792</v>
       </c>
@@ -20094,7 +20097,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>811</v>
       </c>
@@ -20126,7 +20129,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>834</v>
       </c>
@@ -20158,7 +20161,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>911</v>
       </c>
@@ -20190,7 +20193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>924</v>
       </c>
@@ -20222,7 +20225,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>993</v>
       </c>
@@ -20254,7 +20257,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>56</v>
       </c>
@@ -20286,7 +20289,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>71</v>
       </c>
@@ -20318,7 +20321,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>92</v>
       </c>
@@ -20350,7 +20353,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>116</v>
       </c>
@@ -20382,7 +20385,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>289</v>
       </c>
@@ -20414,7 +20417,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>364</v>
       </c>
@@ -20446,7 +20449,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>381</v>
       </c>
@@ -20478,7 +20481,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>421</v>
       </c>
@@ -20510,7 +20513,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>664</v>
       </c>
@@ -20542,7 +20545,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>788</v>
       </c>
@@ -20574,7 +20577,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>829</v>
       </c>
@@ -20606,7 +20609,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>847</v>
       </c>
@@ -20638,7 +20641,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>852</v>
       </c>
@@ -20670,7 +20673,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>991</v>
       </c>
@@ -20702,7 +20705,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>90</v>
       </c>
@@ -20734,7 +20737,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>233</v>
       </c>
@@ -20766,7 +20769,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>356</v>
       </c>
@@ -20798,7 +20801,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>493</v>
       </c>
@@ -20830,7 +20833,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>676</v>
       </c>
@@ -20862,7 +20865,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>890</v>
       </c>
@@ -20894,7 +20897,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>957</v>
       </c>
@@ -20926,7 +20929,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>38</v>
       </c>
@@ -20958,7 +20961,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -20990,7 +20993,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>150</v>
       </c>
@@ -21022,7 +21025,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>211</v>
       </c>
@@ -21054,7 +21057,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>331</v>
       </c>
@@ -21086,7 +21089,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>452</v>
       </c>
@@ -21118,7 +21121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>587</v>
       </c>
@@ -21150,7 +21153,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>649</v>
       </c>
@@ -21182,7 +21185,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>663</v>
       </c>
@@ -21214,7 +21217,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>720</v>
       </c>
@@ -21246,7 +21249,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>741</v>
       </c>
@@ -21278,7 +21281,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>780</v>
       </c>
@@ -21310,7 +21313,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>866</v>
       </c>
@@ -21342,7 +21345,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>933</v>
       </c>
@@ -21374,7 +21377,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>941</v>
       </c>
@@ -21406,7 +21409,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>68</v>
       </c>
@@ -21438,7 +21441,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>79</v>
       </c>
@@ -21470,7 +21473,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>157</v>
       </c>
@@ -21502,7 +21505,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>195</v>
       </c>
@@ -21534,7 +21537,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>369</v>
       </c>
@@ -21566,7 +21569,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>499</v>
       </c>
@@ -21598,7 +21601,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>567</v>
       </c>
@@ -21630,7 +21633,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>609</v>
       </c>
@@ -21662,7 +21665,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>731</v>
       </c>
@@ -21694,7 +21697,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>964</v>
       </c>
@@ -21726,7 +21729,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>972</v>
       </c>
@@ -21758,7 +21761,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>73</v>
       </c>
@@ -21790,7 +21793,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>114</v>
       </c>
@@ -21822,7 +21825,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>298</v>
       </c>
@@ -21854,7 +21857,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>327</v>
       </c>
@@ -21886,7 +21889,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>328</v>
       </c>
@@ -21918,7 +21921,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>523</v>
       </c>
@@ -21950,7 +21953,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>675</v>
       </c>
@@ -21982,7 +21985,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>696</v>
       </c>
@@ -22014,7 +22017,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>822</v>
       </c>
@@ -22046,7 +22049,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>982</v>
       </c>
@@ -22078,7 +22081,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>62</v>
       </c>
@@ -22110,7 +22113,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>152</v>
       </c>
@@ -22142,7 +22145,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>291</v>
       </c>
@@ -22174,7 +22177,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>350</v>
       </c>
@@ -22206,7 +22209,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>427</v>
       </c>
@@ -22238,7 +22241,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>439</v>
       </c>
@@ -22270,7 +22273,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>450</v>
       </c>
@@ -22302,7 +22305,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>573</v>
       </c>
@@ -22334,7 +22337,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>604</v>
       </c>
@@ -22366,7 +22369,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>605</v>
       </c>
@@ -22398,7 +22401,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>670</v>
       </c>
@@ -22430,7 +22433,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>825</v>
       </c>
@@ -22462,7 +22465,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>864</v>
       </c>
@@ -22494,7 +22497,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>99</v>
       </c>
@@ -22526,7 +22529,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>388</v>
       </c>
@@ -22558,7 +22561,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>431</v>
       </c>
@@ -22590,7 +22593,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>501</v>
       </c>
@@ -22622,7 +22625,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>556</v>
       </c>
@@ -22654,7 +22657,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>575</v>
       </c>
@@ -22686,7 +22689,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>653</v>
       </c>
@@ -22718,7 +22721,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>706</v>
       </c>
@@ -22750,7 +22753,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>796</v>
       </c>
@@ -22782,7 +22785,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>946</v>
       </c>
@@ -22814,7 +22817,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>990</v>
       </c>
@@ -22846,7 +22849,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>57</v>
       </c>
@@ -22878,7 +22881,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>254</v>
       </c>
@@ -22910,7 +22913,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>303</v>
       </c>
@@ -22942,7 +22945,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>457</v>
       </c>
@@ -22974,7 +22977,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>515</v>
       </c>
@@ -23006,7 +23009,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>616</v>
       </c>
@@ -23038,7 +23041,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>638</v>
       </c>
@@ -23070,7 +23073,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>717</v>
       </c>
@@ -23102,7 +23105,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>836</v>
       </c>
@@ -23134,7 +23137,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>871</v>
       </c>
@@ -23166,7 +23169,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>879</v>
       </c>
@@ -23198,7 +23201,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>917</v>
       </c>
@@ -23230,7 +23233,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>42</v>
       </c>
@@ -23262,7 +23265,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>117</v>
       </c>
@@ -23294,7 +23297,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>261</v>
       </c>
@@ -23326,7 +23329,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>266</v>
       </c>
@@ -23358,7 +23361,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>292</v>
       </c>
@@ -23390,7 +23393,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>383</v>
       </c>
@@ -23422,7 +23425,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>396</v>
       </c>
@@ -23454,7 +23457,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>580</v>
       </c>
@@ -23486,7 +23489,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>719</v>
       </c>
@@ -23518,7 +23521,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>805</v>
       </c>
@@ -23550,7 +23553,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>966</v>
       </c>
@@ -23582,7 +23585,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>52</v>
       </c>
@@ -23614,7 +23617,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>82</v>
       </c>
@@ -23646,7 +23649,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>201</v>
       </c>
@@ -23678,7 +23681,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>250</v>
       </c>
@@ -23710,7 +23713,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>269</v>
       </c>
@@ -23742,7 +23745,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>334</v>
       </c>
@@ -23774,7 +23777,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>433</v>
       </c>
@@ -23806,7 +23809,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>504</v>
       </c>
@@ -23838,7 +23841,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>614</v>
       </c>
@@ -23870,7 +23873,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>645</v>
       </c>
@@ -23902,7 +23905,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>672</v>
       </c>
@@ -23934,7 +23937,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>973</v>
       </c>
@@ -23966,7 +23969,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>67</v>
       </c>
@@ -23998,7 +24001,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>422</v>
       </c>
@@ -24030,7 +24033,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>426</v>
       </c>
@@ -24062,7 +24065,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>510</v>
       </c>
@@ -24094,7 +24097,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>627</v>
       </c>
@@ -24126,7 +24129,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>771</v>
       </c>
@@ -24158,7 +24161,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>987</v>
       </c>
@@ -24190,7 +24193,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>32</v>
       </c>
@@ -24222,7 +24225,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>191</v>
       </c>
@@ -24254,7 +24257,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>232</v>
       </c>
@@ -24286,7 +24289,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>379</v>
       </c>
@@ -24318,7 +24321,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>418</v>
       </c>
@@ -24350,7 +24353,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>446</v>
       </c>
@@ -24382,7 +24385,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>484</v>
       </c>
@@ -24414,7 +24417,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>490</v>
       </c>
@@ -24446,7 +24449,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>496</v>
       </c>
@@ -24478,7 +24481,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>507</v>
       </c>
@@ -24510,7 +24513,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>521</v>
       </c>
@@ -24542,7 +24545,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>611</v>
       </c>
@@ -24574,7 +24577,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>623</v>
       </c>
@@ -24606,7 +24609,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>705</v>
       </c>
@@ -24638,7 +24641,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>804</v>
       </c>
@@ -24670,7 +24673,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>815</v>
       </c>
@@ -24702,7 +24705,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>859</v>
       </c>
@@ -24734,7 +24737,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>989</v>
       </c>
@@ -24766,7 +24769,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -24798,7 +24801,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>27</v>
       </c>
@@ -24830,7 +24833,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>30</v>
       </c>
@@ -24862,7 +24865,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>113</v>
       </c>
@@ -24894,7 +24897,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>316</v>
       </c>
@@ -24926,7 +24929,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>377</v>
       </c>
@@ -24958,7 +24961,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>397</v>
       </c>
@@ -24990,7 +24993,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>441</v>
       </c>
@@ -25022,7 +25025,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>480</v>
       </c>
@@ -25054,7 +25057,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>483</v>
       </c>
@@ -25086,7 +25089,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>505</v>
       </c>
@@ -25118,7 +25121,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>802</v>
       </c>
@@ -25150,7 +25153,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>818</v>
       </c>
@@ -25182,7 +25185,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>66</v>
       </c>
@@ -25214,7 +25217,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>140</v>
       </c>
@@ -25246,7 +25249,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -25278,7 +25281,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -25310,7 +25313,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>345</v>
       </c>
@@ -25342,7 +25345,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>544</v>
       </c>
@@ -25374,7 +25377,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>593</v>
       </c>
@@ -25406,7 +25409,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>615</v>
       </c>
@@ -25438,7 +25441,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>680</v>
       </c>
@@ -25470,7 +25473,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>758</v>
       </c>
@@ -25502,7 +25505,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>830</v>
       </c>
@@ -25534,7 +25537,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>843</v>
       </c>
@@ -25566,7 +25569,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>873</v>
       </c>
@@ -25598,7 +25601,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>931</v>
       </c>
@@ -25630,7 +25633,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>952</v>
       </c>
@@ -25662,7 +25665,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>89</v>
       </c>
@@ -25694,7 +25697,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>97</v>
       </c>
@@ -25726,7 +25729,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>100</v>
       </c>
@@ -25758,7 +25761,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>171</v>
       </c>
@@ -25790,7 +25793,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>224</v>
       </c>
@@ -25822,7 +25825,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>225</v>
       </c>
@@ -25854,7 +25857,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>258</v>
       </c>
@@ -25886,7 +25889,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>279</v>
       </c>
@@ -25918,7 +25921,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>330</v>
       </c>
@@ -25950,7 +25953,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>358</v>
       </c>
@@ -25982,7 +25985,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>382</v>
       </c>
@@ -26014,7 +26017,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>456</v>
       </c>
@@ -26046,7 +26049,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>465</v>
       </c>
@@ -26078,7 +26081,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>606</v>
       </c>
@@ -26110,7 +26113,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>610</v>
       </c>
@@ -26142,7 +26145,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>756</v>
       </c>
@@ -26174,7 +26177,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>849</v>
       </c>
@@ -26206,7 +26209,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>882</v>
       </c>
@@ -26238,7 +26241,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>886</v>
       </c>
@@ -26270,7 +26273,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>901</v>
       </c>
@@ -26302,7 +26305,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>940</v>
       </c>
@@ -26334,7 +26337,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>985</v>
       </c>
@@ -26366,7 +26369,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6</v>
       </c>
@@ -26398,7 +26401,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>17</v>
       </c>
@@ -26430,7 +26433,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>259</v>
       </c>
@@ -26462,7 +26465,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>354</v>
       </c>
@@ -26494,7 +26497,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>374</v>
       </c>
@@ -26526,7 +26529,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>380</v>
       </c>
@@ -26558,7 +26561,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>429</v>
       </c>
@@ -26590,7 +26593,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>497</v>
       </c>
@@ -26622,7 +26625,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>571</v>
       </c>
@@ -26654,7 +26657,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>601</v>
       </c>
@@ -26686,7 +26689,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>692</v>
       </c>
@@ -26718,7 +26721,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>767</v>
       </c>
@@ -26750,7 +26753,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>868</v>
       </c>
@@ -26782,7 +26785,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>898</v>
       </c>
@@ -26814,7 +26817,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>965</v>
       </c>
@@ -26846,7 +26849,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>142</v>
       </c>
@@ -26878,7 +26881,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>371</v>
       </c>
@@ -26910,7 +26913,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>425</v>
       </c>
@@ -26942,7 +26945,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>445</v>
       </c>
@@ -26974,7 +26977,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>530</v>
       </c>
@@ -27006,7 +27009,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>612</v>
       </c>
@@ -27038,7 +27041,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>654</v>
       </c>
@@ -27070,7 +27073,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>698</v>
       </c>
@@ -27102,7 +27105,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>733</v>
       </c>
@@ -27134,7 +27137,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>833</v>
       </c>
@@ -27166,7 +27169,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>857</v>
       </c>
@@ -27198,7 +27201,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>896</v>
       </c>
@@ -27230,7 +27233,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>906</v>
       </c>
@@ -27262,7 +27265,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>922</v>
       </c>
@@ -27294,7 +27297,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>928</v>
       </c>
@@ -27326,7 +27329,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>936</v>
       </c>
@@ -27358,7 +27361,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>19</v>
       </c>
@@ -27390,7 +27393,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>286</v>
       </c>
@@ -27422,7 +27425,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>359</v>
       </c>
@@ -27454,7 +27457,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>363</v>
       </c>
@@ -27486,7 +27489,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>410</v>
       </c>
@@ -27518,7 +27521,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>576</v>
       </c>
@@ -27550,7 +27553,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>584</v>
       </c>
@@ -27582,7 +27585,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>595</v>
       </c>
@@ -27614,7 +27617,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>624</v>
       </c>
@@ -27646,7 +27649,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>657</v>
       </c>
@@ -27678,7 +27681,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>678</v>
       </c>
@@ -27710,7 +27713,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>704</v>
       </c>
@@ -27742,7 +27745,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>779</v>
       </c>
@@ -27774,7 +27777,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>794</v>
       </c>
@@ -27806,7 +27809,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>45</v>
       </c>
@@ -27838,7 +27841,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>75</v>
       </c>
@@ -27870,7 +27873,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>135</v>
       </c>
@@ -27902,7 +27905,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>230</v>
       </c>
@@ -27934,7 +27937,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -27966,7 +27969,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>524</v>
       </c>
@@ -27998,7 +28001,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>588</v>
       </c>
@@ -28030,7 +28033,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>635</v>
       </c>
@@ -28062,7 +28065,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>641</v>
       </c>
@@ -28094,7 +28097,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>880</v>
       </c>
@@ -28126,7 +28129,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>902</v>
       </c>
@@ -28158,7 +28161,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>37</v>
       </c>
@@ -28190,7 +28193,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>39</v>
       </c>
@@ -28222,7 +28225,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>105</v>
       </c>
@@ -28254,7 +28257,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>185</v>
       </c>
@@ -28286,7 +28289,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>219</v>
       </c>
@@ -28318,7 +28321,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>290</v>
       </c>
@@ -28350,7 +28353,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>621</v>
       </c>
@@ -28382,7 +28385,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>763</v>
       </c>
@@ -28414,7 +28417,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>148</v>
       </c>
@@ -28446,7 +28449,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>205</v>
       </c>
@@ -28478,7 +28481,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>288</v>
       </c>
@@ -28510,7 +28513,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>294</v>
       </c>
@@ -28542,7 +28545,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>360</v>
       </c>
@@ -28574,7 +28577,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>395</v>
       </c>
@@ -28606,7 +28609,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>475</v>
       </c>
@@ -28638,7 +28641,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>487</v>
       </c>
@@ -28670,7 +28673,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>495</v>
       </c>
@@ -28702,7 +28705,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>537</v>
       </c>
@@ -28734,7 +28737,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>548</v>
       </c>
@@ -28766,7 +28769,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>564</v>
       </c>
@@ -28798,7 +28801,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>586</v>
       </c>
@@ -28830,7 +28833,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>619</v>
       </c>
@@ -28862,7 +28865,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>732</v>
       </c>
@@ -28894,7 +28897,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>842</v>
       </c>
@@ -28926,7 +28929,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>893</v>
       </c>
@@ -28958,7 +28961,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>916</v>
       </c>
@@ -28990,7 +28993,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>935</v>
       </c>
@@ -29022,7 +29025,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>974</v>
       </c>
@@ -29054,7 +29057,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>992</v>
       </c>
@@ -29086,7 +29089,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>550</v>
       </c>
@@ -29118,7 +29121,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>553</v>
       </c>
@@ -29150,7 +29153,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>640</v>
       </c>
@@ -29182,7 +29185,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>819</v>
       </c>
@@ -29214,7 +29217,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>870</v>
       </c>
@@ -29246,7 +29249,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>978</v>
       </c>
@@ -29278,7 +29281,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>33</v>
       </c>
@@ -29310,7 +29313,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>101</v>
       </c>
@@ -29342,7 +29345,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>103</v>
       </c>
@@ -29374,7 +29377,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>213</v>
       </c>
@@ -29406,7 +29409,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>295</v>
       </c>
@@ -29438,7 +29441,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -29470,7 +29473,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>335</v>
       </c>
@@ -29502,7 +29505,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>476</v>
       </c>
@@ -29534,7 +29537,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>633</v>
       </c>
@@ -29566,7 +29569,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>650</v>
       </c>
@@ -29598,7 +29601,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>36</v>
       </c>
@@ -29630,7 +29633,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>40</v>
       </c>
@@ -29662,7 +29665,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>228</v>
       </c>
@@ -29694,7 +29697,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>322</v>
       </c>
@@ -29726,7 +29729,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>412</v>
       </c>
@@ -29758,7 +29761,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>414</v>
       </c>
@@ -29790,7 +29793,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>554</v>
       </c>
@@ -29822,7 +29825,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>683</v>
       </c>
@@ -29854,7 +29857,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>708</v>
       </c>
@@ -29886,7 +29889,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>738</v>
       </c>
@@ -29918,7 +29921,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>778</v>
       </c>
@@ -29950,7 +29953,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>800</v>
       </c>
@@ -29982,7 +29985,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>846</v>
       </c>
@@ -30014,7 +30017,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>877</v>
       </c>
@@ -30046,7 +30049,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>912</v>
       </c>
@@ -30078,7 +30081,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>918</v>
       </c>
@@ -30110,7 +30113,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>938</v>
       </c>
@@ -30142,7 +30145,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>983</v>
       </c>
@@ -30174,7 +30177,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>20</v>
       </c>
@@ -30206,7 +30209,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>29</v>
       </c>
@@ -30238,7 +30241,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>51</v>
       </c>
@@ -30270,7 +30273,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>120</v>
       </c>
@@ -30302,7 +30305,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>168</v>
       </c>
@@ -30334,7 +30337,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>520</v>
       </c>
@@ -30366,7 +30369,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>543</v>
       </c>
@@ -30398,7 +30401,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>598</v>
       </c>
@@ -30430,7 +30433,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>648</v>
       </c>
@@ -30462,7 +30465,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>744</v>
       </c>
@@ -30494,7 +30497,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>762</v>
       </c>
@@ -30526,7 +30529,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>844</v>
       </c>
@@ -30558,7 +30561,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>981</v>
       </c>
@@ -30590,7 +30593,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>13</v>
       </c>
@@ -30622,7 +30625,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>60</v>
       </c>
@@ -30654,7 +30657,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>151</v>
       </c>
@@ -30686,7 +30689,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>188</v>
       </c>
@@ -30718,7 +30721,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>204</v>
       </c>
@@ -30750,7 +30753,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>237</v>
       </c>
@@ -30782,7 +30785,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>276</v>
       </c>
@@ -30814,7 +30817,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>341</v>
       </c>
@@ -30846,7 +30849,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>406</v>
       </c>
@@ -30878,7 +30881,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>436</v>
       </c>
@@ -30910,7 +30913,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>462</v>
       </c>
@@ -30942,7 +30945,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>502</v>
       </c>
@@ -30974,7 +30977,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>651</v>
       </c>
@@ -31006,7 +31009,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>750</v>
       </c>
@@ -31038,7 +31041,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>754</v>
       </c>
@@ -31070,7 +31073,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>810</v>
       </c>
@@ -31102,7 +31105,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>920</v>
       </c>
@@ -31134,7 +31137,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>943</v>
       </c>
@@ -31166,7 +31169,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>970</v>
       </c>
@@ -31198,7 +31201,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>84</v>
       </c>
@@ -31230,7 +31233,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>192</v>
       </c>
@@ -31262,7 +31265,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>229</v>
       </c>
@@ -31294,7 +31297,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>236</v>
       </c>
@@ -31326,7 +31329,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>343</v>
       </c>
@@ -31358,7 +31361,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>407</v>
       </c>
@@ -31390,7 +31393,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>461</v>
       </c>
@@ -31422,7 +31425,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>516</v>
       </c>
@@ -31454,7 +31457,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>545</v>
       </c>
@@ -31486,7 +31489,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>600</v>
       </c>
@@ -31518,7 +31521,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>639</v>
       </c>
@@ -31550,7 +31553,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>712</v>
       </c>
@@ -31582,7 +31585,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>773</v>
       </c>
@@ -31614,7 +31617,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>814</v>
       </c>
@@ -31646,7 +31649,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>875</v>
       </c>
@@ -31678,7 +31681,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>948</v>
       </c>
@@ -31710,7 +31713,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>953</v>
       </c>
@@ -31742,7 +31745,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>971</v>
       </c>
@@ -31774,7 +31777,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>994</v>
       </c>
@@ -31806,7 +31809,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>102</v>
       </c>
@@ -31838,7 +31841,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>244</v>
       </c>
@@ -31870,7 +31873,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>417</v>
       </c>
@@ -31902,7 +31905,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>473</v>
       </c>
@@ -31934,7 +31937,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>498</v>
       </c>
@@ -31966,7 +31969,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>534</v>
       </c>
@@ -31998,7 +32001,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>592</v>
       </c>
@@ -32030,7 +32033,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>636</v>
       </c>
@@ -32062,7 +32065,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>655</v>
       </c>
@@ -32094,7 +32097,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>714</v>
       </c>
@@ -32126,7 +32129,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>716</v>
       </c>
@@ -32158,7 +32161,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>722</v>
       </c>
@@ -32190,7 +32193,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>749</v>
       </c>
@@ -32222,7 +32225,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>753</v>
       </c>
@@ -32254,7 +32257,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>785</v>
       </c>
@@ -32286,7 +32289,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>821</v>
       </c>
@@ -32318,7 +32321,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>838</v>
       </c>
@@ -32350,7 +32353,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>10</v>
       </c>
@@ -32382,7 +32385,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>50</v>
       </c>
@@ -32414,7 +32417,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>95</v>
       </c>
@@ -32446,7 +32449,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>106</v>
       </c>
@@ -32478,7 +32481,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>110</v>
       </c>
@@ -32510,7 +32513,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>143</v>
       </c>
@@ -32542,7 +32545,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>194</v>
       </c>
@@ -32574,7 +32577,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>253</v>
       </c>
@@ -32606,7 +32609,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>347</v>
       </c>
@@ -32638,7 +32641,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>353</v>
       </c>
@@ -32670,7 +32673,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>403</v>
       </c>
@@ -32702,7 +32705,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>500</v>
       </c>
@@ -32734,7 +32737,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>506</v>
       </c>
@@ -32766,7 +32769,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>776</v>
       </c>
@@ -32798,7 +32801,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>867</v>
       </c>
@@ -32830,7 +32833,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>888</v>
       </c>
@@ -32862,7 +32865,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>894</v>
       </c>
@@ -32894,7 +32897,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>14</v>
       </c>
@@ -32926,7 +32929,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>16</v>
       </c>
@@ -32958,7 +32961,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>48</v>
       </c>
@@ -32990,7 +32993,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>119</v>
       </c>
@@ -33022,7 +33025,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>128</v>
       </c>
@@ -33054,7 +33057,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>212</v>
       </c>
@@ -33086,7 +33089,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>227</v>
       </c>
@@ -33118,7 +33121,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>297</v>
       </c>
@@ -33150,7 +33153,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>312</v>
       </c>
@@ -33182,7 +33185,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>391</v>
       </c>
@@ -33214,7 +33217,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>532</v>
       </c>
@@ -33246,7 +33249,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>647</v>
       </c>
@@ -33278,7 +33281,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>832</v>
       </c>
@@ -33310,7 +33313,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>856</v>
       </c>
@@ -33342,7 +33345,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>883</v>
       </c>
@@ -33374,7 +33377,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>915</v>
       </c>
@@ -33406,7 +33409,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>4</v>
       </c>
@@ -33438,7 +33441,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>7</v>
       </c>
@@ -33470,7 +33473,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>177</v>
       </c>
@@ -33502,7 +33505,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>208</v>
       </c>
@@ -33534,7 +33537,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>264</v>
       </c>
@@ -33566,7 +33569,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>320</v>
       </c>
@@ -33598,7 +33601,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>413</v>
       </c>
@@ -33630,7 +33633,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>591</v>
       </c>
@@ -33662,7 +33665,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>709</v>
       </c>
@@ -33694,7 +33697,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>710</v>
       </c>
@@ -33726,7 +33729,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>765</v>
       </c>
@@ -33758,7 +33761,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>787</v>
       </c>
@@ -33790,7 +33793,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>855</v>
       </c>
@@ -33822,7 +33825,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>932</v>
       </c>
@@ -33854,7 +33857,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>986</v>
       </c>
@@ -33886,7 +33889,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>18</v>
       </c>
@@ -33918,7 +33921,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>112</v>
       </c>
@@ -33950,7 +33953,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>234</v>
       </c>
@@ -33982,7 +33985,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>246</v>
       </c>
@@ -34014,7 +34017,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>251</v>
       </c>
@@ -34046,7 +34049,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>361</v>
       </c>
@@ -34078,7 +34081,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>378</v>
       </c>
@@ -34110,7 +34113,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>489</v>
       </c>
@@ -34142,7 +34145,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>491</v>
       </c>
@@ -34174,7 +34177,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>658</v>
       </c>
@@ -34206,7 +34209,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>737</v>
       </c>
@@ -34238,7 +34241,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>809</v>
       </c>
@@ -34270,7 +34273,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>860</v>
       </c>
@@ -34302,7 +34305,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>921</v>
       </c>
@@ -34334,7 +34337,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>63</v>
       </c>
@@ -34366,7 +34369,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>149</v>
       </c>
@@ -34398,7 +34401,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>155</v>
       </c>
@@ -34430,7 +34433,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>169</v>
       </c>
@@ -34462,7 +34465,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>174</v>
       </c>
@@ -34494,7 +34497,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>442</v>
       </c>
@@ -34526,7 +34529,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>626</v>
       </c>
@@ -34558,7 +34561,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>661</v>
       </c>
@@ -34590,7 +34593,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>930</v>
       </c>
@@ -34622,7 +34625,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>129</v>
       </c>
@@ -34654,7 +34657,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>184</v>
       </c>
@@ -34686,7 +34689,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>300</v>
       </c>
@@ -34718,7 +34721,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>375</v>
       </c>
@@ -34750,7 +34753,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>443</v>
       </c>
@@ -34782,7 +34785,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>590</v>
       </c>
@@ -34814,7 +34817,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>686</v>
       </c>
@@ -34846,7 +34849,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>726</v>
       </c>
@@ -34878,7 +34881,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>851</v>
       </c>
@@ -34910,7 +34913,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>874</v>
       </c>
@@ -34942,7 +34945,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>919</v>
       </c>
@@ -34974,7 +34977,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>988</v>
       </c>
@@ -35006,7 +35009,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>3</v>
       </c>
@@ -35038,7 +35041,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>21</v>
       </c>
@@ -35070,7 +35073,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>43</v>
       </c>
@@ -35102,7 +35105,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>77</v>
       </c>
@@ -35134,7 +35137,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>109</v>
       </c>
@@ -35166,7 +35169,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>210</v>
       </c>
@@ -35198,7 +35201,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>217</v>
       </c>
@@ -35230,7 +35233,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>218</v>
       </c>
@@ -35262,7 +35265,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>241</v>
       </c>
@@ -35294,7 +35297,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>263</v>
       </c>
@@ -35326,7 +35329,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>270</v>
       </c>
@@ -35358,7 +35361,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>307</v>
       </c>
@@ -35390,7 +35393,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>336</v>
       </c>
@@ -35422,7 +35425,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>468</v>
       </c>
@@ -35454,7 +35457,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>481</v>
       </c>
@@ -35486,7 +35489,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>552</v>
       </c>
@@ -35518,7 +35521,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>568</v>
       </c>
@@ -35550,7 +35553,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>597</v>
       </c>
@@ -35582,7 +35585,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>667</v>
       </c>
@@ -35614,7 +35617,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>669</v>
       </c>
@@ -35646,7 +35649,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>685</v>
       </c>
@@ -35678,7 +35681,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>707</v>
       </c>
@@ -35710,7 +35713,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>735</v>
       </c>
@@ -35742,7 +35745,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>790</v>
       </c>
@@ -35774,7 +35777,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>798</v>
       </c>
@@ -35806,7 +35809,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>968</v>
       </c>
@@ -35838,7 +35841,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>74</v>
       </c>
@@ -35870,7 +35873,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>81</v>
       </c>
@@ -35902,7 +35905,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>137</v>
       </c>
@@ -35934,7 +35937,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>372</v>
       </c>
@@ -35966,7 +35969,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>392</v>
       </c>
@@ -35998,7 +36001,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>408</v>
       </c>
@@ -36030,7 +36033,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>428</v>
       </c>
@@ -36062,7 +36065,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>536</v>
       </c>
@@ -36094,7 +36097,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>574</v>
       </c>
@@ -36126,7 +36129,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>625</v>
       </c>
@@ -36158,7 +36161,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>900</v>
       </c>
@@ -36190,7 +36193,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>153</v>
       </c>
@@ -36222,7 +36225,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>165</v>
       </c>
@@ -36254,7 +36257,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>252</v>
       </c>
@@ -36286,7 +36289,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>319</v>
       </c>
@@ -36318,7 +36321,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>486</v>
       </c>
@@ -36350,7 +36353,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -36382,7 +36385,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>642</v>
       </c>
@@ -36414,7 +36417,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>728</v>
       </c>
@@ -36446,7 +36449,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>745</v>
       </c>
@@ -36478,7 +36481,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>795</v>
       </c>
@@ -36510,7 +36513,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>958</v>
       </c>
@@ -36542,7 +36545,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>26</v>
       </c>
@@ -36574,7 +36577,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>455</v>
       </c>
@@ -36606,7 +36609,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>512</v>
       </c>
@@ -36638,7 +36641,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>689</v>
       </c>
@@ -36670,7 +36673,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>718</v>
       </c>
@@ -36702,7 +36705,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>766</v>
       </c>
@@ -36734,7 +36737,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>775</v>
       </c>
@@ -36766,7 +36769,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>86</v>
       </c>
@@ -36798,7 +36801,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>173</v>
       </c>
@@ -36830,7 +36833,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>215</v>
       </c>
@@ -36862,7 +36865,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>275</v>
       </c>
@@ -36894,7 +36897,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>348</v>
       </c>
@@ -36926,7 +36929,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>385</v>
       </c>
@@ -36958,7 +36961,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>435</v>
       </c>
@@ -36990,7 +36993,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>474</v>
       </c>
@@ -37022,7 +37025,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>477</v>
       </c>
@@ -37054,7 +37057,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>607</v>
       </c>
@@ -37086,7 +37089,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>687</v>
       </c>
@@ -37118,7 +37121,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>807</v>
       </c>
@@ -37150,7 +37153,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>869</v>
       </c>
@@ -37182,7 +37185,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>878</v>
       </c>
@@ -37214,7 +37217,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>891</v>
       </c>
@@ -37246,7 +37249,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>923</v>
       </c>
@@ -37278,7 +37281,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>997</v>
       </c>
@@ -37310,7 +37313,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2</v>
       </c>
@@ -37342,7 +37345,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>65</v>
       </c>
@@ -37374,7 +37377,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>145</v>
       </c>
@@ -37406,7 +37409,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>176</v>
       </c>
@@ -37438,7 +37441,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>200</v>
       </c>
@@ -37470,7 +37473,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>209</v>
       </c>
@@ -37502,7 +37505,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>216</v>
       </c>
@@ -37534,7 +37537,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>220</v>
       </c>
@@ -37566,7 +37569,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>245</v>
       </c>
@@ -37598,7 +37601,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>272</v>
       </c>
@@ -37630,7 +37633,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>337</v>
       </c>
@@ -37662,7 +37665,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>355</v>
       </c>
@@ -37694,7 +37697,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>579</v>
       </c>
@@ -37726,7 +37729,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>711</v>
       </c>
@@ -37758,7 +37761,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>723</v>
       </c>
@@ -37790,7 +37793,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>858</v>
       </c>
@@ -37822,7 +37825,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>892</v>
       </c>
@@ -37854,7 +37857,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>910</v>
       </c>
@@ -37886,7 +37889,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>950</v>
       </c>
@@ -37918,7 +37921,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>961</v>
       </c>
@@ -37950,7 +37953,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>53</v>
       </c>
@@ -37982,7 +37985,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>58</v>
       </c>
@@ -38014,7 +38017,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>94</v>
       </c>
@@ -38046,7 +38049,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>178</v>
       </c>
@@ -38078,7 +38081,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>214</v>
       </c>
@@ -38110,7 +38113,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>255</v>
       </c>
@@ -38142,7 +38145,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>277</v>
       </c>
@@ -38174,7 +38177,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>438</v>
       </c>
@@ -38206,7 +38209,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>492</v>
       </c>
@@ -38238,7 +38241,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>513</v>
       </c>
@@ -38270,7 +38273,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>566</v>
       </c>
@@ -38302,7 +38305,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>583</v>
       </c>
@@ -38334,7 +38337,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>677</v>
       </c>
@@ -38366,7 +38369,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>813</v>
       </c>
@@ -38398,7 +38401,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>903</v>
       </c>
@@ -38430,7 +38433,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>927</v>
       </c>
@@ -38462,7 +38465,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>1</v>
       </c>
@@ -38494,7 +38497,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>11</v>
       </c>
@@ -38526,7 +38529,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>15</v>
       </c>
@@ -38558,7 +38561,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>238</v>
       </c>
@@ -38590,7 +38593,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>293</v>
       </c>
@@ -38622,7 +38625,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>309</v>
       </c>
@@ -38654,7 +38657,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>314</v>
       </c>
@@ -38686,7 +38689,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>390</v>
       </c>
@@ -38718,7 +38721,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>637</v>
       </c>
@@ -38750,7 +38753,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>662</v>
       </c>
@@ -38782,7 +38785,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>748</v>
       </c>
@@ -38814,7 +38817,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>784</v>
       </c>
@@ -38846,7 +38849,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>797</v>
       </c>
@@ -38878,7 +38881,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>799</v>
       </c>
@@ -38910,7 +38913,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>934</v>
       </c>
@@ -38942,7 +38945,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>959</v>
       </c>
@@ -38974,7 +38977,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>969</v>
       </c>
@@ -39006,7 +39009,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>108</v>
       </c>
@@ -39038,7 +39041,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>130</v>
       </c>
@@ -39070,7 +39073,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>164</v>
       </c>
@@ -39102,7 +39105,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>175</v>
       </c>
@@ -39134,7 +39137,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>247</v>
       </c>
@@ -39166,7 +39169,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>302</v>
       </c>
@@ -39198,7 +39201,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>399</v>
       </c>
@@ -39230,7 +39233,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>415</v>
       </c>
@@ -39262,7 +39265,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>420</v>
       </c>
@@ -39294,7 +39297,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>459</v>
       </c>
@@ -39326,7 +39329,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>570</v>
       </c>
@@ -39358,7 +39361,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>690</v>
       </c>
@@ -39390,7 +39393,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>747</v>
       </c>
@@ -39422,7 +39425,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>806</v>
       </c>
@@ -39454,7 +39457,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>820</v>
       </c>
@@ -39486,7 +39489,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>905</v>
       </c>
@@ -39518,7 +39521,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>947</v>
       </c>
@@ -39550,7 +39553,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>111</v>
       </c>
@@ -39582,7 +39585,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>182</v>
       </c>
@@ -39614,7 +39617,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>187</v>
       </c>
@@ -39646,7 +39649,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>221</v>
       </c>
@@ -39678,7 +39681,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>243</v>
       </c>
@@ -39710,7 +39713,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>404</v>
       </c>
@@ -39742,7 +39745,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>482</v>
       </c>
@@ -39774,7 +39777,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>529</v>
       </c>
@@ -39806,7 +39809,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>885</v>
       </c>
@@ -39838,7 +39841,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>41</v>
       </c>
@@ -39870,7 +39873,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>144</v>
       </c>
@@ -39902,7 +39905,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>159</v>
       </c>
@@ -39934,7 +39937,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>160</v>
       </c>
@@ -39966,7 +39969,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>203</v>
       </c>
@@ -39998,7 +40001,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>222</v>
       </c>
@@ -40030,7 +40033,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>268</v>
       </c>
@@ -40062,7 +40065,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>282</v>
       </c>
@@ -40094,7 +40097,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>284</v>
       </c>
@@ -40126,7 +40129,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>296</v>
       </c>
@@ -40158,7 +40161,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>329</v>
       </c>
@@ -40190,7 +40193,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>405</v>
       </c>
@@ -40222,7 +40225,7 @@
         <v>4184</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>430</v>
       </c>
@@ -40254,7 +40257,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>466</v>
       </c>
@@ -40286,7 +40289,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>697</v>
       </c>
@@ -40318,7 +40321,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>803</v>
       </c>
@@ -40350,7 +40353,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>861</v>
       </c>
@@ -40382,7 +40385,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>115</v>
       </c>
@@ -40414,7 +40417,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>123</v>
       </c>
@@ -40446,7 +40449,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>344</v>
       </c>
@@ -40478,7 +40481,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>351</v>
       </c>
@@ -40510,7 +40513,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>440</v>
       </c>
@@ -40542,7 +40545,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>488</v>
       </c>
@@ -40574,7 +40577,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>531</v>
       </c>
@@ -40606,7 +40609,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>542</v>
       </c>
@@ -40638,7 +40641,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>547</v>
       </c>
@@ -40670,7 +40673,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>652</v>
       </c>
@@ -40702,7 +40705,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>679</v>
       </c>
@@ -40734,7 +40737,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>725</v>
       </c>
@@ -40766,7 +40769,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>793</v>
       </c>
@@ -40798,7 +40801,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>78</v>
       </c>
@@ -40830,7 +40833,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>136</v>
       </c>
@@ -40862,7 +40865,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>167</v>
       </c>
@@ -40894,7 +40897,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>183</v>
       </c>
@@ -40926,7 +40929,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>240</v>
       </c>
@@ -40958,7 +40961,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>310</v>
       </c>
@@ -40990,7 +40993,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>326</v>
       </c>
@@ -41022,7 +41025,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>340</v>
       </c>
@@ -41054,7 +41057,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>393</v>
       </c>
@@ -41086,7 +41089,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>485</v>
       </c>
@@ -41118,7 +41121,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>525</v>
       </c>
@@ -41150,7 +41153,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>546</v>
       </c>
@@ -41182,7 +41185,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>585</v>
       </c>
@@ -41214,7 +41217,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>618</v>
       </c>
@@ -41246,7 +41249,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>742</v>
       </c>
@@ -41278,7 +41281,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>760</v>
       </c>
@@ -41310,7 +41313,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>812</v>
       </c>
@@ -41342,7 +41345,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>998</v>
       </c>
@@ -41374,7 +41377,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>47</v>
       </c>
@@ -41406,7 +41409,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>54</v>
       </c>
@@ -41438,7 +41441,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>85</v>
       </c>
@@ -41470,7 +41473,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>138</v>
       </c>
@@ -41502,7 +41505,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>163</v>
       </c>
@@ -41534,7 +41537,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>198</v>
       </c>
@@ -41566,7 +41569,7 @@
         <v>4439</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>389</v>
       </c>
@@ -41598,7 +41601,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>394</v>
       </c>
@@ -41630,7 +41633,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>464</v>
       </c>
@@ -41662,7 +41665,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>518</v>
       </c>
@@ -41694,7 +41697,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>684</v>
       </c>
@@ -41726,7 +41729,7 @@
         <v>4469</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>702</v>
       </c>
@@ -41758,7 +41761,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>755</v>
       </c>
@@ -41790,7 +41793,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>777</v>
       </c>
@@ -41822,7 +41825,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>816</v>
       </c>
@@ -41854,7 +41857,7 @@
         <v>4493</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>848</v>
       </c>
@@ -41886,7 +41889,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>876</v>
       </c>
@@ -41918,7 +41921,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>913</v>
       </c>
@@ -41950,7 +41953,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>83</v>
       </c>
@@ -41982,7 +41985,7 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>242</v>
       </c>
@@ -42014,7 +42017,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>362</v>
       </c>
@@ -42046,7 +42049,7 @@
         <v>4529</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>424</v>
       </c>
@@ -42078,7 +42081,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>463</v>
       </c>
@@ -42110,7 +42113,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>560</v>
       </c>
@@ -42142,7 +42145,7 @@
         <v>4547</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>628</v>
       </c>
@@ -42174,7 +42177,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>665</v>
       </c>
@@ -42206,7 +42209,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>703</v>
       </c>
@@ -42238,7 +42241,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>746</v>
       </c>
@@ -42270,7 +42273,7 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>770</v>
       </c>
@@ -42302,7 +42305,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>895</v>
       </c>
@@ -42334,7 +42337,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>907</v>
       </c>
@@ -42366,7 +42369,7 @@
         <v>4589</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>31</v>
       </c>
@@ -42398,7 +42401,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>49</v>
       </c>
@@ -42430,7 +42433,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>88</v>
       </c>
@@ -42462,7 +42465,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>132</v>
       </c>
@@ -42494,7 +42497,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>207</v>
       </c>
@@ -42526,7 +42529,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>249</v>
       </c>
@@ -42558,7 +42561,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>608</v>
       </c>
@@ -42590,7 +42593,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>701</v>
       </c>
@@ -42622,7 +42625,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>817</v>
       </c>
@@ -42654,7 +42657,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>823</v>
       </c>
@@ -42686,7 +42689,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>863</v>
       </c>
@@ -42718,7 +42721,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>881</v>
       </c>
@@ -42750,7 +42753,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>926</v>
       </c>
@@ -42782,7 +42785,7 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>976</v>
       </c>
@@ -42814,7 +42817,7 @@
         <v>4674</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>287</v>
       </c>
@@ -42846,7 +42849,7 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>324</v>
       </c>
@@ -42878,7 +42881,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>376</v>
       </c>
@@ -42910,7 +42913,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>423</v>
       </c>
@@ -42942,7 +42945,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>448</v>
       </c>
@@ -42974,7 +42977,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>503</v>
       </c>
@@ -43006,7 +43009,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>617</v>
       </c>
@@ -43038,7 +43041,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>646</v>
       </c>
@@ -43070,7 +43073,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>724</v>
       </c>
@@ -43102,7 +43105,7 @@
         <v>4729</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>831</v>
       </c>
@@ -43134,7 +43137,7 @@
         <v>4735</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>872</v>
       </c>
@@ -43166,7 +43169,7 @@
         <v>4741</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>64</v>
       </c>
@@ -43198,7 +43201,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>248</v>
       </c>
@@ -43230,7 +43233,7 @@
         <v>4754</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>447</v>
       </c>
@@ -43262,7 +43265,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>599</v>
       </c>
@@ -43294,7 +43297,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>644</v>
       </c>
@@ -43326,7 +43329,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>699</v>
       </c>
@@ -43358,7 +43361,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>791</v>
       </c>
@@ -43390,7 +43393,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>828</v>
       </c>
@@ -43422,7 +43425,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>984</v>
       </c>
@@ -43454,7 +43457,7 @@
         <v>4796</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>996</v>
       </c>
@@ -43486,7 +43489,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>179</v>
       </c>
@@ -43518,7 +43521,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>338</v>
       </c>
@@ -43550,7 +43553,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>357</v>
       </c>
@@ -43582,7 +43585,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>386</v>
       </c>
@@ -43614,7 +43617,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>409</v>
       </c>
@@ -43646,7 +43649,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>562</v>
       </c>
@@ -43678,7 +43681,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>565</v>
       </c>
@@ -43710,7 +43713,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>630</v>
       </c>
@@ -43742,7 +43745,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>660</v>
       </c>
@@ -43774,7 +43777,7 @@
         <v>4857</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>734</v>
       </c>
@@ -43806,7 +43809,7 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>865</v>
       </c>
@@ -43838,7 +43841,7 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>962</v>
       </c>
@@ -43870,7 +43873,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>23</v>
       </c>
@@ -43902,7 +43905,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>156</v>
       </c>
@@ -43934,7 +43937,7 @@
         <v>4888</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>470</v>
       </c>
@@ -43966,7 +43969,7 @@
         <v>4894</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>508</v>
       </c>
@@ -43998,7 +44001,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>509</v>
       </c>
@@ -44030,7 +44033,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>533</v>
       </c>
@@ -44062,7 +44065,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>634</v>
       </c>
@@ -44094,7 +44097,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>668</v>
       </c>
@@ -44126,7 +44129,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>757</v>
       </c>
@@ -44158,7 +44161,7 @@
         <v>4931</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>774</v>
       </c>
@@ -44190,7 +44193,7 @@
         <v>4937</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>839</v>
       </c>
@@ -44222,7 +44225,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>889</v>
       </c>
@@ -44254,7 +44257,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>995</v>
       </c>
@@ -44286,7 +44289,7 @@
         <v>4955</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>69</v>
       </c>
@@ -44318,7 +44321,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>96</v>
       </c>
@@ -44350,7 +44353,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>125</v>
       </c>
@@ -44382,7 +44385,7 @@
         <v>4974</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>154</v>
       </c>
@@ -44414,7 +44417,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>180</v>
       </c>
@@ -44446,7 +44449,7 @@
         <v>4986</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>181</v>
       </c>
@@ -44478,7 +44481,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>196</v>
       </c>
@@ -44510,7 +44513,7 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>199</v>
       </c>
@@ -44542,7 +44545,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>256</v>
       </c>
@@ -44574,7 +44577,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>271</v>
       </c>
@@ -44606,7 +44609,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>273</v>
       </c>
@@ -44638,7 +44641,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>301</v>
       </c>
@@ -44670,7 +44673,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>315</v>
       </c>
@@ -44702,7 +44705,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>519</v>
       </c>
@@ -44734,7 +44737,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>581</v>
       </c>
@@ -44766,7 +44769,7 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>688</v>
       </c>
@@ -44798,7 +44801,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>715</v>
       </c>
@@ -44830,7 +44833,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>451</v>
       </c>
@@ -44862,7 +44865,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>472</v>
       </c>
@@ -44894,7 +44897,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>511</v>
       </c>
@@ -44926,7 +44929,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>526</v>
       </c>
@@ -44958,7 +44961,7 @@
         <v>5083</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>539</v>
       </c>
@@ -44990,7 +44993,7 @@
         <v>5089</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>549</v>
       </c>
@@ -45022,7 +45025,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>666</v>
       </c>
@@ -45054,7 +45057,7 @@
         <v>5101</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>751</v>
       </c>
@@ -45086,7 +45089,7 @@
         <v>5107</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>782</v>
       </c>
@@ -45118,7 +45121,7 @@
         <v>5113</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>925</v>
       </c>
@@ -45150,7 +45153,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>949</v>
       </c>
@@ -45182,7 +45185,7 @@
         <v>5126</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>954</v>
       </c>
@@ -45214,7 +45217,7 @@
         <v>5132</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>956</v>
       </c>
@@ -45246,7 +45249,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>975</v>
       </c>
@@ -45278,7 +45281,7 @@
         <v>5144</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>22</v>
       </c>
@@ -45310,7 +45313,7 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>98</v>
       </c>
@@ -45342,7 +45345,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>202</v>
       </c>
@@ -45374,7 +45377,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>260</v>
       </c>
@@ -45406,7 +45409,7 @@
         <v>5169</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>278</v>
       </c>
@@ -45438,7 +45441,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>305</v>
       </c>
@@ -45470,7 +45473,7 @@
         <v>5181</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>308</v>
       </c>
@@ -45502,7 +45505,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>349</v>
       </c>
@@ -45534,7 +45537,7 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>401</v>
       </c>
@@ -45566,7 +45569,7 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>444</v>
       </c>
@@ -45598,7 +45601,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>460</v>
       </c>
@@ -45630,7 +45633,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>561</v>
       </c>
@@ -45662,7 +45665,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>603</v>
       </c>
@@ -45694,7 +45697,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>613</v>
       </c>
@@ -45726,7 +45729,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>632</v>
       </c>
@@ -45758,7 +45761,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>761</v>
       </c>
@@ -45790,7 +45793,7 @@
         <v>5240</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>764</v>
       </c>
@@ -45822,7 +45825,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>951</v>
       </c>
@@ -45854,7 +45857,7 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>12</v>
       </c>
@@ -45886,7 +45889,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>24</v>
       </c>
@@ -45918,7 +45921,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>34</v>
       </c>
@@ -45950,7 +45953,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>46</v>
       </c>
@@ -45982,7 +45985,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>80</v>
       </c>
@@ -46014,7 +46017,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>121</v>
       </c>
@@ -46046,7 +46049,7 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>257</v>
       </c>
@@ -46078,7 +46081,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>458</v>
       </c>
@@ -46110,7 +46113,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>572</v>
       </c>
@@ -46142,7 +46145,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>578</v>
       </c>
@@ -46174,7 +46177,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>673</v>
       </c>
@@ -46206,7 +46209,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>682</v>
       </c>
@@ -46238,7 +46241,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>713</v>
       </c>
@@ -46270,7 +46273,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>739</v>
       </c>
@@ -46302,7 +46305,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>768</v>
       </c>
@@ -46334,7 +46337,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>826</v>
       </c>
@@ -46366,7 +46369,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>841</v>
       </c>
@@ -46398,7 +46401,7 @@
         <v>5354</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>904</v>
       </c>
@@ -46430,7 +46433,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>967</v>
       </c>
@@ -46462,7 +46465,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>25</v>
       </c>
@@ -46494,7 +46497,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>44</v>
       </c>
@@ -46526,7 +46529,7 @@
         <v>5379</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>91</v>
       </c>
@@ -46558,7 +46561,7 @@
         <v>5385</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>104</v>
       </c>
@@ -46590,7 +46593,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>161</v>
       </c>
@@ -46622,7 +46625,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>304</v>
       </c>
@@ -46654,7 +46657,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>333</v>
       </c>
@@ -46686,7 +46689,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>365</v>
       </c>
@@ -46718,7 +46721,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>367</v>
       </c>
@@ -46750,7 +46753,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>411</v>
       </c>
@@ -46782,7 +46785,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>569</v>
       </c>
@@ -46814,7 +46817,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>736</v>
       </c>
@@ -46846,7 +46849,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>801</v>
       </c>
@@ -46878,7 +46881,7 @@
         <v>5446</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>854</v>
       </c>
@@ -46910,7 +46913,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>979</v>
       </c>
@@ -46942,7 +46945,7 @@
         <v>5458</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>127</v>
       </c>
@@ -46974,7 +46977,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>131</v>
       </c>
@@ -47006,7 +47009,7 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>133</v>
       </c>
@@ -47038,7 +47041,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>166</v>
       </c>
@@ -47070,7 +47073,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>223</v>
       </c>
@@ -47102,7 +47105,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>299</v>
       </c>
@@ -47134,7 +47137,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>318</v>
       </c>
@@ -47166,7 +47169,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>321</v>
       </c>
@@ -47198,7 +47201,7 @@
         <v>5507</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>342</v>
       </c>
@@ -47230,7 +47233,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>402</v>
       </c>
@@ -47262,7 +47265,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>449</v>
       </c>
@@ -47294,7 +47297,7 @@
         <v>5525</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>479</v>
       </c>
@@ -47326,7 +47329,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>555</v>
       </c>
@@ -47358,7 +47361,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>557</v>
       </c>
@@ -47390,7 +47393,7 @@
         <v>5543</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>622</v>
       </c>
@@ -47422,7 +47425,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>695</v>
       </c>
@@ -47454,7 +47457,7 @@
         <v>5556</v>
       </c>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>700</v>
       </c>
@@ -47486,7 +47489,7 @@
         <v>5562</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>727</v>
       </c>
@@ -47518,7 +47521,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>808</v>
       </c>
@@ -47550,7 +47553,7 @@
         <v>5574</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>835</v>
       </c>
@@ -47582,7 +47585,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>840</v>
       </c>
@@ -47614,7 +47617,7 @@
         <v>5586</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>850</v>
       </c>
@@ -47646,7 +47649,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>937</v>
       </c>
@@ -47678,7 +47681,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>960</v>
       </c>
@@ -47710,7 +47713,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>980</v>
       </c>
@@ -47742,7 +47745,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>59</v>
       </c>
@@ -47774,7 +47777,7 @@
         <v>5618</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>76</v>
       </c>
@@ -47806,7 +47809,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>122</v>
       </c>
@@ -47838,7 +47841,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>124</v>
       </c>
@@ -47870,7 +47873,7 @@
         <v>5636</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>147</v>
       </c>
@@ -47902,7 +47905,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>189</v>
       </c>
@@ -47934,7 +47937,7 @@
         <v>5648</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>197</v>
       </c>
@@ -47966,7 +47969,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>206</v>
       </c>
@@ -47998,7 +48001,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>416</v>
       </c>
@@ -48030,7 +48033,7 @@
         <v>5666</v>
       </c>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>419</v>
       </c>
@@ -48062,7 +48065,7 @@
         <v>5672</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>432</v>
       </c>
@@ -48094,7 +48097,7 @@
         <v>5678</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>434</v>
       </c>
@@ -48126,7 +48129,7 @@
         <v>5684</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>517</v>
       </c>
@@ -48158,7 +48161,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>559</v>
       </c>
@@ -48190,7 +48193,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>577</v>
       </c>
@@ -48222,7 +48225,7 @@
         <v>5702</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>620</v>
       </c>
@@ -48254,7 +48257,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>789</v>
       </c>
@@ -48286,7 +48289,7 @@
         <v>5714</v>
       </c>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>9</v>
       </c>
@@ -48318,7 +48321,7 @@
         <v>5721</v>
       </c>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>72</v>
       </c>
@@ -48350,7 +48353,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>285</v>
       </c>
@@ -48382,7 +48385,7 @@
         <v>5733</v>
       </c>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>317</v>
       </c>
@@ -48414,7 +48417,7 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>332</v>
       </c>
@@ -48446,7 +48449,7 @@
         <v>5745</v>
       </c>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>454</v>
       </c>
@@ -48478,7 +48481,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>471</v>
       </c>
@@ -48510,7 +48513,7 @@
         <v>5756</v>
       </c>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>494</v>
       </c>
@@ -48542,7 +48545,7 @@
         <v>5762</v>
       </c>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>527</v>
       </c>
@@ -48574,7 +48577,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>681</v>
       </c>
@@ -48606,7 +48609,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>740</v>
       </c>
@@ -48638,7 +48641,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>955</v>
       </c>
@@ -48670,7 +48673,7 @@
         <v>5786</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>963</v>
       </c>
@@ -48702,7 +48705,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>107</v>
       </c>
@@ -48734,7 +48737,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>134</v>
       </c>
@@ -48766,7 +48769,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>146</v>
       </c>
@@ -48798,7 +48801,7 @@
         <v>5811</v>
       </c>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>186</v>
       </c>
@@ -48830,7 +48833,7 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>280</v>
       </c>
@@ -48862,7 +48865,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>346</v>
       </c>
@@ -48894,7 +48897,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>368</v>
       </c>
@@ -48926,7 +48929,7 @@
         <v>5836</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>373</v>
       </c>
@@ -48958,7 +48961,7 @@
         <v>5842</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>384</v>
       </c>
@@ -48990,7 +48993,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>398</v>
       </c>
@@ -49022,7 +49025,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>582</v>
       </c>
@@ -49054,7 +49057,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>656</v>
       </c>
@@ -49086,7 +49089,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>694</v>
       </c>
@@ -49118,7 +49121,7 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>781</v>
       </c>
@@ -49150,7 +49153,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>862</v>
       </c>
@@ -49182,7 +49185,7 @@
         <v>5884</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>914</v>
       </c>
@@ -49214,7 +49217,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>944</v>
       </c>
@@ -49246,7 +49249,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>139</v>
       </c>
@@ -49278,7 +49281,7 @@
         <v>5903</v>
       </c>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>158</v>
       </c>
@@ -49310,7 +49313,7 @@
         <v>5909</v>
       </c>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>172</v>
       </c>
@@ -49342,7 +49345,7 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>231</v>
       </c>
@@ -49374,7 +49377,7 @@
         <v>5921</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>306</v>
       </c>
@@ -49406,7 +49409,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>400</v>
       </c>
@@ -49438,7 +49441,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>478</v>
       </c>
@@ -49470,7 +49473,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>514</v>
       </c>
@@ -49502,7 +49505,7 @@
         <v>5945</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>551</v>
       </c>
@@ -49534,7 +49537,7 @@
         <v>5951</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>721</v>
       </c>
@@ -49566,7 +49569,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>759</v>
       </c>
@@ -49598,7 +49601,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>909</v>
       </c>
@@ -49630,7 +49633,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>929</v>
       </c>
@@ -49662,7 +49665,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>939</v>
       </c>
@@ -49694,7 +49697,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>942</v>
       </c>
@@ -49726,7 +49729,7 @@
         <v>5987</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>977</v>
       </c>
@@ -49758,7 +49761,7 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>999</v>
       </c>
@@ -49790,7 +49793,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>61</v>
       </c>
@@ -49822,7 +49825,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>141</v>
       </c>
@@ -49854,7 +49857,7 @@
         <v>6012</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>313</v>
       </c>
@@ -49886,7 +49889,7 @@
         <v>6018</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>437</v>
       </c>
@@ -49918,7 +49921,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>469</v>
       </c>
@@ -49950,7 +49953,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>540</v>
       </c>
@@ -49982,7 +49985,7 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>563</v>
       </c>
@@ -50014,7 +50017,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>589</v>
       </c>
@@ -50046,7 +50049,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>631</v>
       </c>
@@ -50078,7 +50081,7 @@
         <v>6054</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>659</v>
       </c>
@@ -50110,7 +50113,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>827</v>
       </c>
@@ -50142,7 +50145,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>897</v>
       </c>
@@ -50174,7 +50177,7 @@
         <v>6071</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>87</v>
       </c>
@@ -50206,7 +50209,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>126</v>
       </c>
@@ -50238,7 +50241,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>170</v>
       </c>
@@ -50270,7 +50273,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>235</v>
       </c>
@@ -50302,7 +50305,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>267</v>
       </c>
@@ -50334,7 +50337,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>283</v>
       </c>
@@ -50366,7 +50369,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>370</v>
       </c>
@@ -50398,7 +50401,7 @@
         <v>6113</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>535</v>
       </c>
@@ -50430,7 +50433,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>558</v>
       </c>
@@ -50462,7 +50465,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>596</v>
       </c>
@@ -50494,7 +50497,7 @@
         <v>6129</v>
       </c>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>752</v>
       </c>
@@ -50526,7 +50529,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>35</v>
       </c>
@@ -50558,7 +50561,7 @@
         <v>6142</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>93</v>
       </c>
@@ -50590,7 +50593,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>118</v>
       </c>
@@ -50622,7 +50625,7 @@
         <v>6155</v>
       </c>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>162</v>
       </c>
@@ -50654,7 +50657,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>311</v>
       </c>
@@ -50686,7 +50689,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>325</v>
       </c>
@@ -50718,7 +50721,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>339</v>
       </c>
@@ -50750,7 +50753,7 @@
         <v>6179</v>
       </c>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>453</v>
       </c>
@@ -50782,7 +50785,7 @@
         <v>6184</v>
       </c>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>541</v>
       </c>
@@ -50814,7 +50817,7 @@
         <v>6190</v>
       </c>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>594</v>
       </c>
@@ -50846,7 +50849,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>629</v>
       </c>
@@ -50878,7 +50881,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>643</v>
       </c>
@@ -50910,7 +50913,7 @@
         <v>6207</v>
       </c>
     </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>671</v>
       </c>
@@ -50942,7 +50945,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>730</v>
       </c>
@@ -50974,7 +50977,7 @@
         <v>6219</v>
       </c>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>772</v>
       </c>
@@ -51006,7 +51009,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>837</v>
       </c>
@@ -51038,7 +51041,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>845</v>
       </c>
@@ -51070,7 +51073,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>853</v>
       </c>
@@ -51103,6 +51106,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H999" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>